--- a/Client/DEngine/Excels/DataTable/UI.xlsx
+++ b/Client/DEngine/Excels/DataTable/UI.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="UIForm" sheetId="5" r:id="rId1"/>
     <sheet name="UIGroup" sheetId="6" r:id="rId2"/>
-    <sheet name="#DataStruct" sheetId="8" r:id="rId3"/>
+    <sheet name="UIWidget" sheetId="9" r:id="rId3"/>
+    <sheet name="#DataStruct" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
   <si>
     <t>#</t>
   </si>
@@ -101,6 +102,27 @@
   </si>
   <si>
     <t>Default</t>
+  </si>
+  <si>
+    <t>界面控件配置表</t>
+  </si>
+  <si>
+    <t>UIWidgetName</t>
+  </si>
+  <si>
+    <t>界面控件编号</t>
+  </si>
+  <si>
+    <t>界面控件名称</t>
+  </si>
+  <si>
+    <t>是否允许多个控件实例</t>
+  </si>
+  <si>
+    <t>SOUNDBUTTON</t>
+  </si>
+  <si>
+    <t>SoundButton</t>
   </si>
   <si>
     <t>bool[]</t>
@@ -1255,10 +1277,10 @@
   <sheetPr/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A1048489" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
@@ -1377,7 +1399,7 @@
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1482,12 +1504,123 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="16.2" customWidth="1"/>
+    <col min="4" max="4" width="18.2833333333333" customWidth="1"/>
+    <col min="5" max="5" width="34.75" customWidth="1"/>
+    <col min="6" max="6" width="27.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:XFD3">
+      <formula1>'#DataStruct'!$A:$A</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="类型不符" error="输入整数" sqref="B5:B1048576">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:A66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
@@ -1503,87 +1636,87 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -1593,167 +1726,167 @@
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:1">
@@ -1763,67 +1896,67 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
